--- a/biology/Écologie/Savane_soudanienne_occidentale/Savane_soudanienne_occidentale.xlsx
+++ b/biology/Écologie/Savane_soudanienne_occidentale/Savane_soudanienne_occidentale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La savane soudanienne occidentale est une écorégion terrestre définie par le WWF, appartenant au biome des prairies, savanes et terres arbustives tropicales et subtropicales de l'écozone afrotropicale. Elle s'étend sur le Centre-Sud Sénégal, le Burkina Faso, le Togo, le Sud malien, le Sud nigérien, le Nord de la Côte d'Ivoire, du Bénin, de la Gambie, du Ghana, de la Guinée et du Nigeria. 
 Cette savane est bordée au nord par un biome désertique et au sud par des forêts tropicales. Les écorégions de l'ouest et de l'est sont séparées par les monts Mandara, qui occupent une partie du massif montagneux de haute altitude qui sépare l'ouest de l'Afrique de son centre.
@@ -514,7 +526,9 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le climat est chaud et sec. Cette savane est constituée pour sa partie boisée de grandes espèces d'arbres et pour sa partie herbeuse d'« herbes à éléphant ». L'altitude varie de 200 à 400 mètres.
 </t>
@@ -545,7 +559,9 @@
           <t>Aires protégées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 2008, seulement, 6,7 % de cette zone est protégée, ce qui représente cependant 90 000 km2. 
 Les parcs nationaux sont (de l'Ouest à l'Est): 
@@ -584,11 +600,48 @@
           <t>Flore et faune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le massif offre une frontière naturelle pour plusieurs taxons végétaux et permet de différencier ses deux écorégions, par exemple l'Isoberlinia. La faune est au contraire identique de part et d'autre mis à part quelques petits animaux endémiques à une zone, par exemple comme Crocidura Cendrillon, Lemniscomys linulus des mammifères, ou comme huit espèces de reptiles, et trois d'amphibiens endémiques dans cette zone.
-Flore caractéristique
-La savane soudanienne est caractérisée par la présence de certains taxons originaires de la région.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le massif offre une frontière naturelle pour plusieurs taxons végétaux et permet de différencier ses deux écorégions, par exemple l'Isoberlinia. La faune est au contraire identique de part et d'autre mis à part quelques petits animaux endémiques à une zone, par exemple comme Crocidura Cendrillon, Lemniscomys linulus des mammifères, ou comme huit espèces de reptiles, et trois d'amphibiens endémiques dans cette zone.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Savane_soudanienne_occidentale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Savane_soudanienne_occidentale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Flore et faune</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Flore caractéristique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La savane soudanienne est caractérisée par la présence de certains taxons originaires de la région.
 Baobab africain
 Acacia Sénégal
 Acacia nilotica
